--- a/Twinklymaket/ru/ru.xlsx
+++ b/Twinklymaket/ru/ru.xlsx
@@ -376,14 +376,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A130"/>
+  <dimension ref="A1:A131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Twinkly</v>
+        <v>Holiday Lights</v>
       </c>
     </row>
     <row r="2">
@@ -398,7 +398,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve">«Twinkly» </v>
+        <v xml:space="preserve">«Holiday Lights»» </v>
       </c>
     </row>
     <row r="5">
@@ -563,332 +563,332 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve">Гарантия производителя 5 лет! </v>
+        <v xml:space="preserve">Синхронизация с музыкой </v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve">Синхронизация с музыкой </v>
+        <v xml:space="preserve">Все функции </v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve">Все функции </v>
+        <v>в одном приложении</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>в одном приложении</v>
+        <v xml:space="preserve">Приложение можно </v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v xml:space="preserve">Приложение можно </v>
+        <v>бесплатно загрузить</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>бесплатно загрузить</v>
+        <v xml:space="preserve">для iOS и Android </v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v xml:space="preserve">для iOS и Android </v>
+        <v>Мгновенная настройка</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Мгновенная настройка</v>
+        <v>Настройте устройство Holiday Lights за несколько секунд с помощью соединения Bluetooth</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Настройте устройство Twinkly за несколько секунд с помощью соединения Bluetooth</v>
+        <v>Holiday Lights Online</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Twinkly Online</v>
+        <v>Загружайте новые эффекты и анимацию и включайте их на своих гирляндах</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Загружайте новые эффекты и анимацию и включайте их на своих гирляндах</v>
+        <v>Главное управление</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Главное управление</v>
+        <v>Включение/выключение, настройка яркости, таймер выключения. Всегда в ожидании ваших команд</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Включение/выключение, настройка яркости, таймер выключения. Всегда в ожидании ваших команд</v>
+        <v>Палитра цветов</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Палитра цветов</v>
+        <v>Используйте новую интуитивно понятную палитру цветов для подбора идеальной гаммы</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Используйте новую интуитивно понятную палитру цветов для подбора идеальной гаммы</v>
+        <v>Быстрое переключение</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Быстрое переключение</v>
+        <v>Быстрое переключение между устройствами Holiday Lights всего лишь одним касанием</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Быстрое переключение между устройствами Twinkly всего лишь одним касанием</v>
+        <v>Расширенные группы</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Расширенные группы</v>
+        <v>Функция создания и выбора групп стала намного более простой и эффективной</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Функция создания и выбора групп стала намного более простой и эффективной</v>
+        <v xml:space="preserve">Smart-гирлянды </v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve">Smart-гирлянды </v>
+        <v>"Holiday Lights"</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>"Twinkly"</v>
+        <v xml:space="preserve">уже зарекомендовали себя в 18 странах мира. </v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v xml:space="preserve">уже зарекомендовали себя в 18 странах мира. </v>
+        <v>Теперь они доступны и в России!</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Теперь они доступны и в России!</v>
+        <v xml:space="preserve">Товар по сниженной цене </v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v xml:space="preserve">Товар по сниженной цене </v>
+        <v>лимитирован!</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>лимитирован!</v>
+        <v>138 €</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>138 €</v>
+        <v>Цена сегодня:</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Цена сегодня:</v>
+        <v>69 €</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>69 €</v>
+        <v xml:space="preserve">Заказать сейчас </v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v xml:space="preserve">Заказать сейчас </v>
+        <v xml:space="preserve">В связи с высоким спросом, вынуждены ввести ограничение: </v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v xml:space="preserve">В связи с высоким спросом, вынуждены ввести ограничение: </v>
+        <v>не более 5 гирлянд в 1 руки</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>не более 5 гирлянд в 1 руки</v>
+        <v>Технические</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Технические</v>
+        <v>характеристики</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>характеристики</v>
+        <v xml:space="preserve">Количество лампочек: </v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v xml:space="preserve">Количество лампочек: </v>
+        <v>100 штук</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>175 штук</v>
+        <v xml:space="preserve">Длина гирлянды: </v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v xml:space="preserve">Длина гирлянды: </v>
+        <v>5 м</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>5 м</v>
+        <v xml:space="preserve">Цвет лампочек: </v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v xml:space="preserve">Цвет лампочек: </v>
+        <v>зеленый,</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>зеленый,</v>
+        <v>синий,</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>синий,</v>
+        <v>красный</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>красный</v>
+        <v xml:space="preserve">Тип лампочек: </v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v xml:space="preserve">Тип лампочек: </v>
+        <v>LED</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>LED</v>
+        <v xml:space="preserve">Защищенность: </v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v xml:space="preserve">Защищенность: </v>
+        <v>IP44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>IP44</v>
+        <v xml:space="preserve">Управление со смартфона: </v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v xml:space="preserve">Управление со смартфона: </v>
+        <v>есть</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>есть</v>
+        <v xml:space="preserve">Зарядка через: </v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Комплектация</v>
+        <v>USB</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Smart-гирлянда</v>
+        <v xml:space="preserve">Отзывы </v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Адаптер питания</v>
+        <v>наших покупателей</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Документация</v>
+        <v xml:space="preserve">Автор: </v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v xml:space="preserve">Отзывы </v>
+        <v>Кристина С.</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>наших покупателей</v>
+        <v xml:space="preserve">Оценка: </v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v xml:space="preserve">Автор: </v>
+        <v>Гирлянда - просто сказка! Безумно красивая, яркая. Провод прозрачный, очень прочный, все соединения сделаны на отлично. Огромная разница по сравнению с обычными гирляндами, перегорающими каждый год. Решила взять сразу две, одну себе - вторую для подарка сестре. Приложение скачала быстро, оно есть в плей маркете, дело пяти минут. В общем, очень рада, всем советую, не пожалеете 100%!:)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Кристина С. | 11.11.2020</v>
+        <v xml:space="preserve">Автор: </v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v xml:space="preserve">Оценка: </v>
+        <v>Анастасия Х.</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Гирлянда - просто сказка! Безумно красивая, яркая. Провод прозрачный, очень прочный, все соединения сделаны на отлично. Огромная разница по сравнению с обычными гирляндами, перегорающими каждый год. Решила взять сразу две, одну себе - вторую для подарка сестре. Приложение скачала быстро, оно есть в плей маркете, дело пяти минут. В общем, очень рада, всем советую, не пожалеете 100%!:)</v>
+        <v xml:space="preserve">Оценка: </v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v xml:space="preserve">Автор: </v>
+        <v>Заказала себе две гирлянды. Одной украсила свою ёлочку. Вторую использовала для нашей спальни. Даже муж в восторге, как получилось красиво! Если честно, давно задавалась вопросом, почему управление с телефона подсветкой еще не придумали? Оказывается, придумали! Очень рада, настроение неописуемое, поскорее бы Новый год! Буду ее использовать каждую зиму, спасибо!</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Анастасия Х. | 10.11.2020</v>
+        <v xml:space="preserve">Автор: </v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v xml:space="preserve">Оценка: </v>
+        <v>Александр Р.</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Заказала себе две гирлянды. Одной украсила свою ёлочку. Вторую использовала для нашей спальни. Даже муж в восторге, как получилось красиво! Если честно, давно задавалась вопросом, почему управление с телефона подсветкой еще не придумали? Оказывается, придумали! Очень рада, настроение неописуемое, поскорее бы Новый год! Буду ее использовать каждую зиму, спасибо!</v>
+        <v xml:space="preserve">Оценка: </v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v xml:space="preserve">Автор: </v>
+        <v>Купил смарт-гирлянду, так как детям безумно понравилась. Приложение на телефоне установил без проблем, есть в настройках русский язык. Можно менять цвета, яркость, анимацию огней. Очень удобно поставить небольшую яркгость, чтобы вечером всё красиво подсвечивалось, пока играешь с детьми или смотришь телевизор. Вещь незаменимая каждый Новый год, поэтому незадумываясь приобрел. Рекомендую!</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Александр Р. | 09.11.2020</v>
+        <v>Как сделать заказ?</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v xml:space="preserve">Оценка: </v>
+        <v>Заявка</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Купил смарт-гирлянду, так как детям безумно понравилась. Приложение на телефоне установил без проблем, есть в настройках русский язык. Можно менять цвета, яркость, анимацию огней. Очень удобно поставить небольшую яркгость, чтобы вечером всё красиво подсвечивалось, пока играешь с детьми или смотришь телевизор. Вещь незаменимая каждый Новый год, поэтому незадумываясь приобрел. Рекомендую!</v>
+        <v>Наш менеджер перезвонит вам для уточнения деталей и мы отправим ваш товар почтой по указанному адресу</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Как сделать заказ?</v>
+        <v>Подтверждение</v>
       </c>
     </row>
     <row r="103">
@@ -898,7 +898,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Наш менеджер перезвонит вам для уточнения деталей и мы отправим ваш товар почтой по указанному адресу</v>
+        <v>Получение</v>
       </c>
     </row>
     <row r="105">
@@ -908,7 +908,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v xml:space="preserve">Мы всегда проверяем товар перед отправкой и </v>
+        <v>Мы всегда проверяем товар перед отправкой и</v>
       </c>
     </row>
     <row r="107">
@@ -928,7 +928,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v xml:space="preserve">«Twinkly» </v>
+        <v xml:space="preserve">«Holiday Lights» </v>
       </c>
     </row>
     <row r="111">
@@ -993,47 +993,52 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v xml:space="preserve">Осталось </v>
+        <v>Заказать сейчас</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v xml:space="preserve">гирлянд по акции </v>
+        <v xml:space="preserve">Осталось </v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Privacy policy</v>
+        <v xml:space="preserve">гирлянд по акции </v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>General conditions of sale</v>
+        <v>Privacy policy</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Legal warning</v>
+        <v>General conditions of sale</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>HOME GOODS LTD., адрес</v>
+        <v>Legal warning</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ваше Имя</v>
+        <v>HOME GOODS LTD., адрес</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
+        <v>Ваше Имя</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
         <v>Ваш телефон</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A130"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A131"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1051,7 +1056,12 @@
     &lt;meta charset="UTF-8"&gt;
     &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
     &lt;meta http-equiv="X-UA-Compatible" content="ie=edge"&gt;
-    &lt;title&gt;&lt;span data-translate="1"&gt;Twinkly&lt;/span&gt;&lt;/title&gt;
+    &lt;title&gt;&lt;span data-translate="1"&gt;Holiday Lights&lt;/span&gt;&lt;/title&gt;
+    &lt;meta property="og:title" content="Holiday Lights"&gt;
+    &lt;meta property="og:description" content="Smart-гирлянда"&gt;
+    &lt;meta property="og:image" content="https://i.imgur.com/cmjBqFP.png"&gt;
+    &lt;meta property="og:type" content="website"&gt;
+    &lt;link rel="shortcut icon" href="favicon.png" type="image/png"&gt;
     &lt;script src="https://code.jquery.com/jquery-3.4.1.js" integrity="sha256-WpOohJOqMqqyKL9FccASB9O0KwACQJpFTUBLTYOVvVU=" crossorigin="anonymous"&gt;&lt;/script&gt;
     &lt;link rel="stylesheet" href="https://stackpath.bootstrapcdn.com/bootstrap/4.3.1/css/bootstrap.min.css" integrity="sha384-ggOyR0iXCbMQv3Xipma34MD+dH/1fQ784/j6cY/iJTQUOhcWr7x9JvoRxT2MZw1T" crossorigin="anonymous"&gt;
     &lt;script src="https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.14.7/umd/popper.min.js" integrity="sha384-UO2eT0CpHqdSJQ6hJty5KVphtPhzWj9WO1clHTMGa3JDZwrnQq4sF86dIHNDz0W1" crossorigin="anonymous"&gt;&lt;/script&gt;
@@ -1063,8 +1073,8 @@
     &lt;link rel="stylesheet" href="css/settings.css"&gt;
     &lt;script src="js/main.js"&gt;&lt;/script&gt;
     &lt;script src="js/count.js"&gt;&lt;/script&gt;
-&lt;!-- LT code insertion --&gt;
-&lt;!-- /LT code insertion --&gt;
+    &lt;!-- LT code insertion --&gt;
+    &lt;!-- /LT code insertion --&gt;
 &lt;/head&gt;
 &lt;body&gt;
     &lt;div class="wrapper"&gt;
@@ -1072,7 +1082,7 @@
             &lt;div class="b1_text"&gt;&lt;span data-translate="2"&gt;Новогодняя распродажа!&lt;/span&gt;&lt;/div&gt;
             &lt;h1 class="h1"&gt;
                 &lt;div class="white h1_1"&gt;&lt;span data-translate="3"&gt;Smart-гирлянда&lt;/span&gt;&lt;/div&gt;
-                &lt;div class="yellow h1_2"&gt;&lt;span data-translate="4"&gt;«Twinkly»
+                &lt;div class="yellow h1_2"&gt;&lt;span data-translate="4"&gt;«Holiday Lights»»
             &lt;/span&gt;&lt;/div&gt;&lt;/h1&gt;
             &lt;div class="sale_field"&gt;
                 &lt;div class="sale_block"&gt;
@@ -1085,18 +1095,18 @@
             &lt;/div&gt;
             &lt;div class="row"&gt;
                 &lt;div class="col-6"&gt;
-                    &lt;div class="main_img"&gt;&lt;/div&gt;
+                    &lt;div class="main_img"&gt;&lt;/div</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str" xml:space="preserve">
+        <v xml:space="preserve">&gt;
                 &lt;/div&gt;
                 &lt;div class="col-6"&gt;
                     &lt;div class="main_price"&gt;
                         &lt;div class="oldproductsum"&gt;&lt;span data-translate="10"&gt;138 €&lt;/span&gt;&lt;/div&gt;
                         &lt;p&gt;&lt;span data-translate="11"&gt;Цена сегодня:&lt;/span&gt;&lt;/p&gt;
-                        &lt;div class="productsu</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str" xml:space="preserve">
-        <v xml:space="preserve">m"&gt;&lt;span data-translate="12"&gt;69 €&lt;/span&gt;&lt;/div&gt;
+                        &lt;div class="productsum"&gt;&lt;span data-translate="12"&gt;69 €&lt;/span&gt;&lt;/div&gt;
                     &lt;/div&gt;
                     &lt;div class="timer" style="display: flex; align-items: center;"&gt;
                         &lt;div class="countbox clearfix"&gt;&lt;/div&gt;
@@ -1150,18 +1160,18 @@
                 &lt;div class="col-6"&gt;
                     &lt;div class="where_block"&gt;
                         &lt;div class="where_img where_img3"&gt;&lt;/div&gt;
-                        &lt;p&gt;&lt;span data-translate="24"&gt;Балкон&lt;/span&gt;&lt;/p&gt;
+          </v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str" xml:space="preserve">
+        <v xml:space="preserve">              &lt;p&gt;&lt;span data-translate="24"&gt;Балкон&lt;/span&gt;&lt;/p&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="col-6"&gt;
                     &lt;div class="where_block"&gt;
                         &lt;div class="where_img where_img4"&gt;&lt;/div&gt;
-                        &lt;p&gt;&lt;span data-translate="25"&gt;Лестницы&lt;/span</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">&gt;&lt;/p&gt;
+                        &lt;p&gt;&lt;span data-translate="25"&gt;Лестницы&lt;/span&gt;&lt;/p&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="col-6"&gt;
@@ -1200,7 +1210,7 @@
         &lt;div class="video_block"&gt;
             &lt;div class="h2"&gt;&lt;span data-translate="29"&gt;Как это работает?&lt;/span&gt;&lt;br&gt;&lt;span data-translate="30"&gt;Смотрите видео!&lt;/span&gt;&lt;/div&gt;
             &lt;div class="video"&gt;
-                    &lt;iframe width="100%" height="250px" src="https://www.youtube.com/embed/UOhdmxitTcA" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;
+                &lt;iframe width="100%" height="250px" src="https://www.youtube.com/embed/0PshuL8qpbE" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;
             &lt;/div&gt;
             &lt;div class="m30 flex jcc"&gt;
                 &lt;a href="#form"&gt;&lt;div class="orange_btn"&gt;&lt;span data-translate="31"&gt;Заказать сейчас
@@ -1218,19 +1228,19 @@
                     &lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="col-4"&gt;
-                    &lt;div class="func_item"&gt;
+                 </v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str" xml:space="preserve">
+        <v xml:space="preserve">   &lt;div class="func_item"&gt;
                         &lt;div class="func_img func_img2"&gt;&lt;/div&gt;
                         &lt;div class="func_text"&gt;&lt;span data-translate="35"&gt;Подходит любой смартфон с Bluetooth
                         &lt;/span&gt;&lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="col-4"&gt;
-               </v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">     &lt;div class="func_item"&gt;
+                    &lt;div class="func_item"&gt;
                         &lt;div class="func_img func_img3"&gt;&lt;/div&gt;
                         &lt;div class="func_text"&gt;&lt;span data-translate="36"&gt;Индивидуальная настройка анимации
                         &lt;/span&gt;&lt;/div&gt;
@@ -1238,25 +1248,18 @@
                 &lt;/div&gt;
                 &lt;div class="col-4"&gt;
                     &lt;div class="func_item"&gt;
-                        &lt;div class="func_img func_img4"&gt;&lt;/div&gt;
-                        &lt;div class="func_text"&gt;&lt;span data-translate="37"&gt;Гарантия производителя 5 лет!
-                        &lt;/span&gt;&lt;/div&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;
-                &lt;div class="col-4"&gt;
-                    &lt;div class="func_item"&gt;
                         &lt;div class="func_img func_img5"&gt;&lt;/div&gt;
-                        &lt;div class="func_text"&gt;&lt;span data-translate="38"&gt;Синхронизация с музыкой
+                        &lt;div class="func_text"&gt;&lt;span data-translate="37"&gt;Синхронизация с музыкой
                         &lt;/span&gt;&lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="block_6"&gt;
-            &lt;div class="h2"&gt;&lt;span data-translate="39"&gt;Все функции &lt;/span&gt;&lt;br&gt;&lt;span data-translate="40"&gt;в одном приложении&lt;/span&gt;&lt;/div&gt;
+            &lt;div class="h2"&gt;&lt;span data-translate="38"&gt;Все функции &lt;/span&gt;&lt;br&gt;&lt;span data-translate="39"&gt;в одном приложении&lt;/span&gt;&lt;/div&gt;
             &lt;div class="block_6_img"&gt;
                 &lt;div class="blue_2"&gt;&lt;/div&gt;
-                &lt;div class="main_text_2"&gt;&lt;span data-translate="41"&gt;Приложение можно &lt;/span&gt;&lt;br&gt;&lt;span data-translate="42"&gt;бесплатно загрузить&lt;/span&gt;&lt;br&gt;&lt;span data-translate="43"&gt;для iOS и Android
+                &lt;div class="main_text_2"&gt;&lt;span data-translate="40"&gt;Приложение можно &lt;/span&gt;&lt;br&gt;&lt;span data-translate="41"&gt;бесплатно загрузить&lt;/span&gt;&lt;br&gt;&lt;span data-translate="42"&gt;для iOS и Android
                 &lt;/span&gt;&lt;/div&gt;
                 &lt;div class="bottom_blue"&gt;&lt;/div&gt;
                 &lt;div class="download_btns"&gt;
@@ -1271,8 +1274,8 @@
                     &lt;div class="function_icon function_icon1"&gt;&lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="function_text"&gt;
-                    &lt;div class="function_title"&gt;&lt;span data-translate="44"&gt;Мгновенная настройка&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="function_desc"&gt;&lt;span data-translate="45"&gt;Настройте устройство Twinkly за несколько секунд с помощью соединения Bluetooth&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_title"&gt;&lt;span data-translate="43"&gt;Мгновенная настройка&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_desc"&gt;&lt;span data-translate="44"&gt;Настройте устройство Holiday Lights за несколько секунд с помощью соединения Bluetooth&lt;/span&gt;&lt;/div&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
             &lt;div class="function_item"&gt;
@@ -1280,22 +1283,22 @@
                     &lt;div class="function_icon function_icon2"&gt;&lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="function_text"&gt;
-                    &lt;div class="function_title"&gt;&lt;span data-translate="46"&gt;Twinkly Online&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="function_desc"&gt;&lt;span data-translate="47"&gt;Загружайте новые эффекты и анимацию и включайте их на своих гирляндах&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_title"&gt;&lt;span data-translate="45"&gt;Holiday Lights Online&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_desc"&gt;&lt;span data-translate="46"&gt;Загружайте новые эффекты и анимацию и включайте их на своих гирляндах&lt;/span&gt;&lt;/div&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
             &lt;div class="function_item"&gt;
                 &lt;div class="function_border"&gt;
                     &lt;div class="function_icon function_icon3"&gt;&lt;/div&gt;
                 &lt;/div&gt;
-                &lt;div </v>
+   </v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">class="function_text"&gt;
-                    &lt;div class="function_title"&gt;&lt;span data-translate="48"&gt;Главное управление&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="function_desc"&gt;&lt;span data-translate="49"&gt;Включение/выключение, настройка яркости, таймер выключения. Всегда в ожидании ваших команд&lt;/span&gt;&lt;/div&gt;
+        <v xml:space="preserve">             &lt;div class="function_text"&gt;
+                    &lt;div class="function_title"&gt;&lt;span data-translate="47"&gt;Главное управление&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_desc"&gt;&lt;span data-translate="48"&gt;Включение/выключение, настройка яркости, таймер выключения. Всегда в ожидании ваших команд&lt;/span&gt;&lt;/div&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
             &lt;div class="function_item"&gt;
@@ -1303,8 +1306,8 @@
                     &lt;div class="function_icon function_icon4"&gt;&lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="function_text"&gt;
-                    &lt;div class="function_title"&gt;&lt;span data-translate="50"&gt;Палитра цветов&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="function_desc"&gt;&lt;span data-translate="51"&gt;Используйте новую интуитивно понятную палитру цветов для подбора идеальной гаммы&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_title"&gt;&lt;span data-translate="49"&gt;Палитра цветов&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_desc"&gt;&lt;span data-translate="50"&gt;Используйте новую интуитивно понятную палитру цветов для подбора идеальной гаммы&lt;/span&gt;&lt;/div&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
             &lt;div class="function_item"&gt;
@@ -1312,8 +1315,8 @@
                     &lt;div class="function_icon function_icon5"&gt;&lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="function_text"&gt;
-                    &lt;div class="function_title"&gt;&lt;span data-translate="52"&gt;Быстрое переключение&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="function_desc"&gt;&lt;span data-translate="53"&gt;Быстрое переключение между устройствами Twinkly всего лишь одним касанием&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_title"&gt;&lt;span data-translate="51"&gt;Быстрое переключение&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_desc"&gt;&lt;span data-translate="52"&gt;Быстрое переключение между устройствами Holiday Lights всего лишь одним касанием&lt;/span&gt;&lt;/div&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
             &lt;div class="function_item"&gt;
@@ -1321,212 +1324,200 @@
                     &lt;div class="function_icon function_icon6"&gt;&lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="function_text"&gt;
-                    &lt;div class="function_title"&gt;&lt;span data-translate="54"&gt;Расширенные группы&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="function_desc"&gt;&lt;span data-translate="55"&gt;Функция создания и выбора групп стала намного более простой и эффективной&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_title"&gt;&lt;span data-translate="53"&gt;Расширенные группы&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="function_desc"&gt;&lt;span data-translate="54"&gt;Функция создания и выбора групп стала намного более простой и эффективной&lt;/span&gt;&lt;/div&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
             &lt;div class="green_bottom"&gt;&lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="m30"&gt;
-            &lt;div class="h2"&gt;&lt;span data-translate="56"&gt;Smart-гирлянды &lt;/span&gt;&lt;br&gt;&lt;span data-translate="57"&gt;"Twinkly"&lt;/span&gt;&lt;/div&gt;
-            &lt;p class="sm_a"&gt;&lt;span data-translate="58"&gt;уже зарекомендовали себя в 18 странах мира. &lt;/span&gt;&lt;br&gt;
-            &lt;span class="red"&gt;&lt;span data-translate="59"&gt;Теперь они доступны и в России!&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+            &lt;div class="h2"&gt;&lt;span data-translate="55"&gt;Smart-гирлянды &lt;/span&gt;&lt;br&gt;&lt;span data-translate="56"&gt;"Holiday Lights"&lt;/span&gt;&lt;/div&gt;
+            &lt;p class="sm_a"&gt;&lt;span data-translate="57"&gt;уже зарекомендовали себя в 18 странах мира. &lt;/span&gt;&lt;br&gt;
+            &lt;span class="red"&gt;&lt;span data-translate="58"&gt;Теперь они доступны и в России!&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
             &lt;div class="img4"&gt;&lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="block_limit"&gt;
-            &lt;div class="h3 white"&gt;&lt;span data-translate="60"&gt;Товар по сниженной цене &lt;/span&gt;&lt;span class="yellow"&gt;&lt;span data-translate="61"&gt;лимитирован!&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
+            &lt;div class="h3 white"&gt;&lt;span data-translate="59"&gt;Товар по сниженной цене &lt;/span&gt;&lt;span class="yellow"&gt;&lt;span data-translate="60"&gt;лимитирован!&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
             &lt;div class="row m30"&gt;
                 &lt;div class="col-6"&gt;
                     &lt;div class="main_img main_img2"&gt;&lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="col-6"&gt;
                     &lt;div class="main_price"&gt;
-                        &lt;div class="oldproductsum"&gt;&lt;span data-translate="62"&gt;138 €&lt;/span&gt;&lt;/div&gt;
-                        &lt;p&gt;&lt;span data-t</v>
+                        &lt;div class="oldproductsum"&gt;&lt;span data-translate="61"&gt;138 €&lt;/span&gt;&lt;/div&gt;
+       </v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve">ranslate="63"&gt;Цена сегодня:&lt;/span&gt;&lt;/p&gt;
-                        &lt;div class="productsum"&gt;&lt;span data-translate="64"&gt;69 €&lt;/span&gt;&lt;/div&gt;
+        <v xml:space="preserve">                 &lt;p&gt;&lt;span data-translate="62"&gt;Цена сегодня:&lt;/span&gt;&lt;/p&gt;
+                        &lt;div class="productsum"&gt;&lt;span data-translate="63"&gt;69 €&lt;/span&gt;&lt;/div&gt;
                     &lt;/div&gt;
                     &lt;div class="timer" style="display: flex; align-items: center;"&gt;
                         &lt;div class="countbox clearfix"&gt;&lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="m30 flex jcc fww"&gt;
-                    &lt;a href="#form"&gt;&lt;div class="orange_btn"&gt;&lt;span data-translate="65"&gt;Заказать сейчас
+                    &lt;a href="#form"&gt;&lt;div class="orange_btn"&gt;&lt;span data-translate="64"&gt;Заказать сейчас
                     &lt;/span&gt;&lt;/div&gt;&lt;/a&gt;
-                    &lt;p class="spros"&gt;&lt;span data-translate="66"&gt;В связи с высоким спросом, вынуждены ввести ограничение:
-                    &lt;/span&gt;&lt;span class="yellow_3"&gt;&lt;span data-translate="67"&gt;не более 5 гирлянд в 1 руки&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+                    &lt;p class="spros"&gt;&lt;span data-translate="65"&gt;В связи с высоким спросом, вынуждены ввести ограничение:
+                    &lt;/span&gt;&lt;span class="yellow_3"&gt;&lt;span data-translate="66"&gt;не более 5 гирлянд в 1 руки&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="tech_block"&gt;
-            &lt;div class="h2"&gt;&lt;span data-translate="68"&gt;Технические&lt;/span&gt;&lt;br&gt;&lt;span data-translate="69"&gt;характеристики&lt;/span&gt;&lt;/div&gt;
+            &lt;div class="h2"&gt;&lt;span data-translate="67"&gt;Технические&lt;/span&gt;&lt;br&gt;&lt;span data-translate="68"&gt;характеристики&lt;/span&gt;&lt;/div&gt;
             &lt;div class="tech_img tech_img1"&gt;&lt;/div&gt;
             &lt;div class="tech_list"&gt;
                 &lt;div class="tech_item green"&gt;
                     &lt;div class="row"&gt;
-                        &lt;div class="col-7"&gt;&lt;span data-translate="70"&gt;Количество лампочек:
+                        &lt;div class="col-7"&gt;&lt;span data-translate="69"&gt;Количество лампочек:
                         &lt;/span&gt;&lt;/div&gt;        
                         &lt;div class="col-5"&gt;
-                            &lt;b&gt;&lt;span data-translate="71"&gt;175 штук&lt;/span&gt;&lt;/b&gt;
+                            &lt;b&gt;&lt;span data-translate="70"&gt;100 штук&lt;/span&gt;&lt;/b&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="tech_item"&gt;
                     &lt;div class="row"&gt;
-                        &lt;div class="col-7"&gt;&lt;span data-translate="72"&gt;Длина гирлянды:
+                        &lt;div class="col-7"&gt;&lt;span data-translate="71"&gt;Длина гирлянды:
                         &lt;/span&gt;&lt;/div&gt;        
                         &lt;div class="col-5"&gt;
-                            &lt;b&gt;&lt;span data-translate="73"&gt;5 м&lt;/span&gt;&lt;/b&gt;
+                            &lt;b&gt;&lt;span data-translate="72"&gt;5 м&lt;/span&gt;&lt;/b&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                  &lt;div class="tech_item green"&gt;
                     &lt;div class="row"&gt;
-                        &lt;div class="col-7"&gt;&lt;span data-translate="74"&gt;Цвет лампочек:
+                        &lt;div class="col-7"&gt;&lt;span data-translate="73"&gt;Цвет лампочек:
                         &lt;/span&gt;&lt;/div&gt;        
                         &lt;div class="col-5"&gt;
-                            &lt;b&gt;&lt;span data-translate="75"&gt;зеленый,&lt;/span&gt;&lt;br&gt;&lt;span data-translate="76"&gt;синий,&lt;/span&gt;&lt;br&gt;&lt;span data-translate="77"&gt;красный&lt;/span&gt;&lt;/b&gt;
+                            &lt;b&gt;&lt;span data-translate="74"&gt;зеленый,&lt;/span&gt;&lt;br&gt;&lt;span data-translate="75"&gt;синий,&lt;/span&gt;&lt;br&gt;&lt;span data-translate="76"&gt;красный&lt;/span&gt;&lt;/b&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                  &lt;div class="tech_item "&gt;
                     &lt;div class="row"&gt;
-                        &lt;div class="col-7"&gt;&lt;span data-translate="78"&gt;Тип лампочек:
+                        &lt;div class="col-7"&gt;&lt;span data-translate="77"&gt;Тип лампочек:
                         &lt;/span&gt;&lt;/div&gt;        
                         &lt;div class="col-5"&gt;
-                            &lt;b&gt;&lt;span data-translate="79"&gt;LED&lt;/span&gt;&lt;/b&gt;
+                            &lt;b&gt;&lt;span data-translate="78"&gt;LED&lt;/span&gt;&lt;/b&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                  &lt;div class="tech_item green"&gt;
                     &lt;div class="row"&gt;
-                        &lt;div class="col-7"&gt;&lt;span data-translate="80"&gt;З</v>
+                        &lt;div class="co</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str" xml:space="preserve">
-        <v xml:space="preserve">ащищенность:
+        <v xml:space="preserve">l-7"&gt;&lt;span data-translate="79"&gt;Защищенность:
                         &lt;/span&gt;&lt;/div&gt;        
                         &lt;div class="col-5"&gt;
-                            &lt;b&gt;&lt;span data-translate="81"&gt;IP44&lt;/span&gt;&lt;/b&gt;
+                            &lt;b&gt;&lt;span data-translate="80"&gt;IP44&lt;/span&gt;&lt;/b&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
                  &lt;div class="tech_item "&gt;
                     &lt;div class="row"&gt;
-                        &lt;div class="col-7"&gt;&lt;span data-translate="82"&gt;Управление со смартфона:
+                        &lt;div class="col-7"&gt;&lt;span data-translate="81"&gt;Управление со смартфона:
                         &lt;/span&gt;&lt;/div&gt;        
                         &lt;div class="col-5"&gt;
-                            &lt;b&gt;&lt;span data-translate="83"&gt;есть&lt;/span&gt;&lt;/b&gt;
+                            &lt;b&gt;&lt;span data-translate="82"&gt;есть&lt;/span&gt;&lt;/b&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div class="tech_img tech_img2"&gt;&lt;/div&gt;
-            &lt;div class="h2"&gt;&lt;span data-translate="84"&gt;Комплектация&lt;/span&gt;&lt;/div&gt;
-            &lt;div class="complect"&gt;
-                &lt;div class="row"&gt;
-                    &lt;div class="col-4"&gt;
-                        &lt;div class="complect_item"&gt;
-                            &lt;div class="check"&gt;&lt;/div&gt;
-                            &lt;div class="complect_text"&gt;&lt;span data-translate="85"&gt;Smart-гирлянда&lt;/span&gt;&lt;/div&gt;
-                        &lt;/div&gt;
-                    &lt;/div&gt;
-                    &lt;div class="col-4"&gt;
-                        &lt;div class="complect_item"&gt;
-                            &lt;div class="check"&gt;&lt;/div&gt;
-                            &lt;div class="complect_text"&gt;&lt;span data-translate="86"&gt;Адаптер питания&lt;/span&gt;&lt;/div&gt;
-                        &lt;/div&gt;
-                    &lt;/div&gt;
-                    &lt;div class="col-4"&gt;
-                        &lt;div class="complect_item"&gt;
-                            &lt;div class="check"&gt;&lt;/div&gt;
-                            &lt;div class="complect_text"&gt;&lt;span data-translate="87"&gt;Документация&lt;/span&gt;&lt;/div&gt;
+                 &lt;div class="tech_item green"&gt;
+                    &lt;div class="row"&gt;
+                        &lt;div class="col-7"&gt;&lt;span data-translate="83"&gt;Зарядка через:
+                        &lt;/span&gt;&lt;/div&gt;        
+                        &lt;div class="col-5"&gt;
+                            &lt;b&gt;&lt;span data-translate="84"&gt;USB&lt;/span&gt;&lt;/b&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
         &lt;/div&gt;
         &lt;div class="reviews_block"&gt;
-            &lt;div class="h3 white"&gt;&lt;span data-translate="88"&gt;Отзывы &lt;/span&gt;&lt;br&gt; &lt;span class="yellow h3"&gt;&lt;span data-translate="89"&gt;наших покупателей&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
+            &lt;div class="h3 white"&gt;&lt;span data-translate="85"&gt;Отзывы &lt;/span&gt;&lt;br&gt; &lt;span class="yellow h3"&gt;&lt;span data-translate="86"&gt;наших покупателей&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
             &lt;div class="reviews"&gt;
                 &lt;div class="review_block"&gt;
                     &lt;div class="review_head"&gt;
-                        &lt;div class="name"&gt;&lt;b&gt;&lt;span data-translate="90"&gt;Автор: &lt;/span&gt;&lt;/b&gt;&lt;span data-translate="91"&gt;Кристина С. | 11.11.2020&lt;/span&gt;&lt;/div&gt;
+                        &lt;div class="name"&gt;&lt;b&gt;&lt;span data-translate="87"&gt;Автор: &lt;/span&gt;&lt;/b&gt;&lt;span data-translate="88"&gt;Кристина С.&lt;/span&gt;&lt;/div&gt;
                         &lt;div class="rating"&gt;
-                            &lt;div class="rating_text"&gt;&lt;b&gt;&lt;span data-translate="92"&gt;Оценка: &lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
+                            &lt;div class="rating_text"&gt;&lt;b&gt;&lt;span data-translate="89"&gt;Оценка: &lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
                             &lt;div class="rating_stars"&gt;&lt;/div&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;div class="review_text"&gt;&lt;span data-translate="93"&gt;Гирлянда - просто сказка! Безумно красивая, яркая. Провод прозрачный, очень прочный, все соединения сделаны на отлично. Огромная разница по сравнению с обычными гирляндами, перегорающими каждый год. Решила взять сразу две, одну себе - вторую для подарка сестре. Пр</v>
+                    &lt;div class="review_text"&gt;&lt;span data-translate="90"&gt;Гирлянда - просто сказка! Безумно красивая, яркая. Провод прозрачный, очень прочный, все соединения сделаны на отлично. Огромная разница по сравнению с обычными гирляндами, перегорающими каждый год. Решила взять сразу две, одну себе - вторую для подарка сестре. Приложение скачала быстро, оно есть в плей маркете, дело пяти минут. В общем, очень рада, всем советую, не пожалеете 100%!:)&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="review_photo review_photo1"&gt;&lt;/div&gt;
+                &lt;/div&gt;
+                &lt;div class="review_block"&gt;
+                    &lt;div class="review_head"&gt;
+                        &lt;div class="name"&gt;&lt;b&gt;&lt;span data-translate="91"&gt;Автор: &lt;/span&gt;&lt;/b&gt;&lt;span data-translate="92"&gt;Анастасия Х.&lt;/span&gt;&lt;/div&gt;
+                        &lt;div class="rating"&gt;
+                            &lt;div class="rating_text"&gt;&lt;b&gt;&lt;span data-translate="93"&gt;Оценка: &lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
+                            &lt;div class="rating_stars"&gt;&lt;/div&gt;
+                        &lt;/div&gt;
+                    &lt;/div&gt;
+                    &lt;</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str" xml:space="preserve">
-        <v xml:space="preserve">иложение скачала быстро, оно есть в плей маркете, дело пяти минут. В общем, очень рада, всем советую, не пожалеете 100%!:)&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="review_photo review_photo1"&gt;&lt;/div&gt;
+        <v xml:space="preserve">div class="review_text"&gt;&lt;span data-translate="94"&gt;Заказала себе две гирлянды. Одной украсила свою ёлочку. Вторую использовала для нашей спальни. Даже муж в восторге, как получилось красиво! Если честно, давно задавалась вопросом, почему управление с телефона подсветкой еще не придумали? Оказывается, придумали! Очень рада, настроение неописуемое, поскорее бы Новый год! Буду ее использовать каждую зиму, спасибо!&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="review_photo review_photo2"&gt;&lt;/div&gt;
                 &lt;/div&gt;
                 &lt;div class="review_block"&gt;
                     &lt;div class="review_head"&gt;
-                        &lt;div class="name"&gt;&lt;b&gt;&lt;span data-translate="94"&gt;Автор: &lt;/span&gt;&lt;/b&gt;&lt;span data-translate="95"&gt;Анастасия Х. | 10.11.2020&lt;/span&gt;&lt;/div&gt;
+                        &lt;div class="name"&gt;&lt;b&gt;&lt;span data-translate="95"&gt;Автор: &lt;/span&gt;&lt;/b&gt;&lt;span data-translate="96"&gt;Александр Р.&lt;/span&gt;&lt;/div&gt;
                         &lt;div class="rating"&gt;
-                            &lt;div class="rating_text"&gt;&lt;b&gt;&lt;span data-translate="96"&gt;Оценка: &lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
+                            &lt;div class="rating_text"&gt;&lt;b&gt;&lt;span data-translate="97"&gt;Оценка: &lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
                             &lt;div class="rating_stars"&gt;&lt;/div&gt;
                         &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;div class="review_text"&gt;&lt;span data-translate="97"&gt;Заказала себе две гирлянды. Одной украсила свою ёлочку. Вторую использовала для нашей спальни. Даже муж в восторге, как получилось красиво! Если честно, давно задавалась вопросом, почему управление с телефона подсветкой еще не придумали? Оказывается, придумали! Очень рада, настроение неописуемое, поскорее бы Новый год! Буду ее использовать каждую зиму, спасибо!&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="review_photo review_photo2"&gt;&lt;/div&gt;
-                &lt;/div&gt;
-                &lt;div class="review_block"&gt;
-                    &lt;div class="review_head"&gt;
-                        &lt;div class="name"&gt;&lt;b&gt;&lt;span data-translate="98"&gt;Автор: &lt;/span&gt;&lt;/b&gt;&lt;span data-translate="99"&gt;Александр Р. | 09.11.2020&lt;/span&gt;&lt;/div&gt;
-                        &lt;div class="rating"&gt;
-                            &lt;div class="rating_text"&gt;&lt;b&gt;&lt;span data-translate="100"&gt;Оценка: &lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
-                            &lt;div class="rating_stars"&gt;&lt;/div&gt;
+                    &lt;div class="review_text"&gt;&lt;span data-translate="98"&gt;Купил смарт-гирлянду, так как детям безумно понравилась. Приложение на телефоне установил без проблем, есть в настройках русский язык. Можно менять цвета, яркость, анимацию огней. Очень удобно поставить небольшую яркгость, чтобы вечером всё красиво подсвечивалось, пока играешь с детьми или смотришь телевизор. Вещь незаменимая каждый Новый год, поэтому незадумываясь приобрел. Рекомендую!&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="review_photo review_photo3"&gt;&lt;/div&gt;
+                &lt;/div&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;
+                &lt;div class="how_block"&gt;
+                    &lt;div class="h2"&gt;&lt;span data-translate="99"&gt;Как сделать заказ?&lt;/span&gt;&lt;/div&gt;
+                    &lt;div class="how_list"&gt;
+                        &lt;div class="how_item how_item1"&gt;
+                            &lt;div class="how_img how_img1"&gt;&lt;/div&gt;
+                            &lt;p class="how_title"&gt;&lt;span data-translate="100"&gt;Заявка&lt;/span&gt;&lt;/p&gt;
+                            &lt;div class="how_text"&gt;&lt;span data-translate="101"&gt;Наш менеджер перезвонит вам для уточнения деталей и мы отправим ваш товар почтой по указанному адресу&lt;/span&gt;&lt;/div&gt;
                         &lt;/div&gt;
-                    &lt;/div&gt;
-                    &lt;div class="review_text"&gt;&lt;span data-translate="101"&gt;Купил смарт-гирлянду, так как детям безумно понравилась. Приложение на телефоне установил без проблем, есть в настройках русский язык. Можно менять цвета, яркость, анимацию огней. Очень удобно поставить небольшую яркгость, чтобы вечером всё красиво подсвечивалось, пока играешь с детьми или смотришь телевизор. Вещь незаменимая каждый Новый год, поэтому незадумываясь приобрел. Рекомендую!&lt;/span&gt;&lt;/div&gt;
-                    &lt;div class="review_photo review_photo3"&gt;&lt;/div&gt;
-                &lt;/div&gt;
-            &lt;/div&gt;
-        &lt;/div&gt;
-        &lt;div class="how_block"&gt;
-            &lt;div class="h2"&gt;&lt;span data-translate="102"&gt;Как сделать заказ?&lt;/span&gt;&lt;/div&gt;
-            &lt;div class="how_list"&gt;
-                &lt;div class="how_item"&gt;
-                    &lt;div class="how_img how_img1"&gt;&lt;/div&gt;
-                    &lt;div class="how_text"&gt;&lt;span data-translate="103"&gt;Наш менеджер перезвонит вам для уточнения деталей и мы отправим ваш товар почтой по указанному адресу&lt;/span&gt;&lt;/div&gt;
-                &lt;/div&gt;
-                &lt;div class="how_item"&gt;
-                    &lt;div class="how_img how_img2"&gt;&lt;/div&gt;
-                    &lt;div class="how_text"&gt;&lt;span data-</v>
+                        &lt;div class="how_item how_item2"&gt;
+                            &lt;div class="how_img how_img2"&gt;&lt;/div&gt;
+                            &lt;p class="how_title"&gt;&lt;span data-translate="102"&gt;Подтверждение&lt;/span&gt;&lt;/p&gt;
+                            &lt;div class="how_text"&gt;&lt;span data-translate="103"&gt;Наш менеджер перезвонит вам для уточнения деталей и мы отправим ваш товар почтой по указанному адресу&lt;/span&gt;&lt;/div&gt;
+                        &lt;/div&gt;
+                        &lt;div class="how_item how_item3"&gt;
+                            &lt;div class="how_img how_img3"&gt;&lt;/div&gt;
+                            &lt;p class="how_title"&gt;&lt;span data-translate="104"&gt;Получение&lt;/span&gt;&lt;/p&gt;
+                            &lt;div class="how_text"&gt;&lt;span data-translate="105"&gt;Наш менеджер перезвонит в</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str" xml:space="preserve">
-        <v xml:space="preserve">translate="104"&gt;Наш менеджер перезвонит вам для уточнения деталей и мы отправим ваш товар почтой по указанному адресу&lt;/span&gt;&lt;/div&gt;
-                &lt;/div&gt;
-                &lt;div class="how_item"&gt;
-                    &lt;div class="how_img how_img3"&gt;&lt;/div&gt;
-                    &lt;div class="how_text"&gt;&lt;span data-translate="105"&gt;Наш менеджер перезвонит вам для уточнения деталей и мы отправим ваш товар почтой по указанному адресу&lt;/span&gt;&lt;/div&gt;
-                &lt;/div&gt;
-            &lt;/div&gt;
-            &lt;div class="garant"&gt;
-                &lt;div class="garant_block"&gt;
-                    &lt;div class="shield"&gt;&lt;/div&gt;
-                    &lt;div class="garant_text"&gt;&lt;span data-translate="106"&gt;Мы всегда проверяем товар перед отправкой и &lt;/span&gt;&lt;span class="yellow_3"&gt;&lt;span data-translate="107"&gt;гарантируем 100% качество&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
-                &lt;/div&gt;
-            &lt;/div&gt;
-        &lt;/div&gt;
+        <v xml:space="preserve">ам для уточнения деталей и мы отправим ваш товар почтой по указанному адресу&lt;/span&gt;&lt;/div&gt;
+                        &lt;/div&gt;
+                    &lt;/div&gt;
+                    &lt;div class="garant"&gt;
+                        &lt;div class="garant_block"&gt;
+                            &lt;div class="shield"&gt;&lt;/div&gt;
+                            &lt;div class="garant_text"&gt;&lt;span data-translate="106"&gt;Мы всегда проверяем товар перед отправкой и&lt;/span&gt;&lt;span class="yellow_3"&gt;&lt;span data-translate="107"&gt;гарантируем 100% качество&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
+                        &lt;/div&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;
         &lt;div class="block_1 block"&gt;
             &lt;div class="b1_text"&gt;&lt;span data-translate="108"&gt;Новогодняя распродажа!&lt;/span&gt;&lt;/div&gt;
             &lt;h1 class="h1"&gt;
                 &lt;div class="white h1_1"&gt;&lt;span data-translate="109"&gt;Smart-гирлянда&lt;/span&gt;&lt;/div&gt;
-                &lt;div class="yellow h1_2"&gt;&lt;span data-translate="110"&gt;«Twinkly»
+                &lt;div class="yellow h1_2"&gt;&lt;span data-translate="110"&gt;«Holiday Lights»
             &lt;/span&gt;&lt;/div&gt;&lt;/h1&gt;
             &lt;div class="sale_field"&gt;
                 &lt;div class="sale_block"&gt;
@@ -1562,24 +1553,24 @@
                 &lt;div class="col-4"&gt;
                     &lt;div class="block_2_img block_2_img2"&gt;&lt;/div&gt;
                     &lt;p&gt;&lt;span data-translate="120"&gt;LED-гирлянда подойдёт к любому интерьеру!&lt;/span&gt;&lt;/p&gt;
-</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str" xml:space="preserve">
-        <v xml:space="preserve">                &lt;/div&gt;
+                &lt;/div&gt;
                 &lt;div class="col-4"&gt;
                     &lt;div class="block_2_img block_2_img3"&gt;&lt;/div&gt;
                     &lt;p&gt;&lt;span data-translate="121"&gt;Можно использовать как декор в помещении&lt;/span&gt;&lt;/p&gt;
                 &lt;/div&gt;
-            &lt;/div&gt;
+            &lt;/div</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str" xml:space="preserve">
+        <v xml:space="preserve">&gt;
             &lt;div class="flex jcc fww"&gt;
                 &lt;div class="block_2_main"&gt;
                     &lt;p&gt;&lt;span data-translate="122"&gt;Закажи яркую и 100% безопасную гирлянду сегодня и уже завтра, ваш дом, квартира или улица - засияет незабываемыми огоньками!&lt;/span&gt;&lt;/p&gt;
                 &lt;/div&gt;
                 &lt;form id="form" method="post" class="orderformcdn"&gt;
-                    &lt;input type="text" name="name" class="field" placeholder="Ваше Имя" value required data-placeholder="129" data-placeholder-translate="Ваше Имя"&gt;
-                    &lt;input type="text" name="phone" class="field" placeholder="Ваш телефон" value required data-placeholder="130" data-placeholder-translate="Ваш телефон"&gt;
+                    &lt;input type="text" name="name" class="field" placeholder="Ваше Имя" value required data-placeholder="130" data-placeholder-translate="Ваше Имя"&gt;
+                    &lt;input type="text" name="phone" class="field" placeholder="Ваш телефон" value required data-placeholder="131" data-placeholder-translate="Ваш телефон"&gt;
 		  &lt;input name="offer_id" type="hidden" value="{offer_id}"&gt;
           &lt;input name="geo" type="hidden" value&gt;
           &lt;input name="web_id" type="hidden" value="{web_id}"&gt;
@@ -1587,18 +1578,18 @@
           &lt;input name="time_zone" type="hidden" value="+3"&gt;
           &lt;input name="lang" type="hidden" value="RU"&gt;
                     &lt;div class="reolader" style="width: 100%;"&gt;
-                        &lt;input type="submit" value="Заказать сейчас" class="mm_button orange_btn  orange_btn2 m30"&gt;
+                        &lt;button type="submit" class="mm_button orange_btn  orange_btn2 m30"&gt;&lt;span data-translate="123"&gt;Заказать сейчас&lt;/span&gt;&lt;/button&gt;
                     &lt;/div&gt;
                 &lt;/form&gt;
-                &lt;div class="count_products"&gt;&lt;span data-translate="123"&gt;Осталось &lt;/span&gt;&lt;span&gt;8&lt;/span&gt;&lt;span data-translate="124"&gt;гирлянд по акции
+                &lt;div class="count_products"&gt;&lt;span data-translate="124"&gt;Осталось &lt;/span&gt;&lt;span&gt;8&lt;/span&gt;&lt;span data-translate="125"&gt;гирлянд по акции
                 &lt;/span&gt;&lt;/div&gt;
             &lt;/div&gt;
             &lt;div class="footer"&gt;
-	&lt;a href="/privacypolicy" target="_blank"&gt;&lt;span data-translate="125"&gt;Privacy policy&lt;/span&gt;&lt;/a&gt; 
-	&lt;a href="/general-conditions-of-sale" target="_blank"&gt;&lt;span data-translate="126"&gt;General conditions of sale&lt;/span&gt;&lt;/a&gt; 
-	&lt;a href="/legal-warning" target="_blank"&gt;&lt;span data-translate="127"&gt;Legal warning&lt;/span&gt;&lt;/a&gt;
+	&lt;a href="/privacypolicy" target="_blank"&gt;&lt;span data-translate="126"&gt;Privacy policy&lt;/span&gt;&lt;/a&gt; 
+	&lt;a href="/general-conditions-of-sale" target="_blank"&gt;&lt;span data-translate="127"&gt;General conditions of sale&lt;/span&gt;&lt;/a&gt; 
+	&lt;a href="/legal-warning" target="_blank"&gt;&lt;span data-translate="128"&gt;Legal warning&lt;/span&gt;&lt;/a&gt;
                 &lt;div class="contacts"&gt;
-                    &lt;p class&gt;&lt;span data-translate="128"&gt;HOME GOODS LTD., адрес&lt;/span&gt;&lt;/p&gt;
+                    &lt;p class&gt;&lt;span data-translate="129"&gt;HOME GOODS LTD., адрес&lt;/span&gt;&lt;/p&gt;
                 &lt;/div&gt;
             &lt;/div&gt;
         &lt;/div&gt;
